--- a/biology/Botanique/Tetrameles_nudiflora/Tetrameles_nudiflora.xlsx
+++ b/biology/Botanique/Tetrameles_nudiflora/Tetrameles_nudiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetrameles nudiflora ou faux fromager est un arbre de la famille des Tétramélacées. C'est la seule espèce du genre Tetrameles.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre géant de forme columnaire large mesure jusqu'à 45 m de haut.
-Il est célèbre pour ses majestueux contreforts très caractéristiques[2].
+Il est célèbre pour ses majestueux contreforts très caractéristiques.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre qui se trouve dans le Queensland (Australie), le Bangladesh, le Bhoutan, la Chine, l'Inde, l'Indonésie, le Laos, la Malaisie, la Birmanie, le Sri Lanka, le Cambodge, la Thaïlande et le Viêt Nam.
 </t>
